--- a/biology/Médecine/Hôpital_franco-vietnamien_d'Hô_Chi_Minh-Ville/Hôpital_franco-vietnamien_d'Hô_Chi_Minh-Ville.xlsx
+++ b/biology/Médecine/Hôpital_franco-vietnamien_d'Hô_Chi_Minh-Ville/Hôpital_franco-vietnamien_d'Hô_Chi_Minh-Ville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_franco-vietnamien_d%27H%C3%B4_Chi_Minh-Ville</t>
+          <t>Hôpital_franco-vietnamien_d'Hô_Chi_Minh-Ville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital franco-vietnamien (vietnamien : Bệnh viện Pháp Việt) est l'un des principaux hôpitaux d'Hô Chi Minh-Ville au Viêt Nam.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_franco-vietnamien_d%27H%C3%B4_Chi_Minh-Ville</t>
+          <t>Hôpital_franco-vietnamien_d'Hô_Chi_Minh-Ville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 2003 par un groupe de médecins français, l'hôpital compte 150 médecins à plein temps, 1 000 employés, assurant un demi-million de visites médicales par an. 
-Les patients viennent du monde entier[1]. 
-L'association FVH Medicine Vietnam[2] a été créée pour offrir des soins médicaux gratuits aux enfants nécessitant une intervention chirurgicale[3],[4],[5],[6],[7],[8],[9].  
-L'hôpital franco-vietnamien est réputé pour ses service d'oncologie [10], d'obstétrique et gynécologie , de pédiatrie , d'ophtalmologie , de gastro-entérologie  et hépatologie  et de radiologie médicale[11].
+Les patients viennent du monde entier. 
+L'association FVH Medicine Vietnam a été créée pour offrir des soins médicaux gratuits aux enfants nécessitant une intervention chirurgicale.  
+L'hôpital franco-vietnamien est réputé pour ses service d'oncologie , d'obstétrique et gynécologie , de pédiatrie , d'ophtalmologie , de gastro-entérologie  et hépatologie  et de radiologie médicale.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_franco-vietnamien_d%27H%C3%B4_Chi_Minh-Ville</t>
+          <t>Hôpital_franco-vietnamien_d'Hô_Chi_Minh-Ville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Formation médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital a ouvert des programmes d'internat et de bourses. 
 Des étudiants de licence en médecine et chirurgie et de doctorat en médecine de différentes pays ont postulé pour faire leur internat à l'hôpital. 
